--- a/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>CHA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13248700</v>
+        <v>13003400</v>
       </c>
       <c r="E8" s="3">
-        <v>13537800</v>
+        <v>12923600</v>
       </c>
       <c r="F8" s="3">
-        <v>13793400</v>
+        <v>13205600</v>
       </c>
       <c r="G8" s="3">
-        <v>13222100</v>
+        <v>13455100</v>
       </c>
       <c r="H8" s="3">
-        <v>13191800</v>
+        <v>12897700</v>
       </c>
       <c r="I8" s="3">
-        <v>13833800</v>
+        <v>12868200</v>
       </c>
       <c r="J8" s="3">
+        <v>13494400</v>
+      </c>
+      <c r="K8" s="3">
         <v>13862000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13583500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40807900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13776000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13578200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12902300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12650700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3653000</v>
+        <v>4696900</v>
       </c>
       <c r="E9" s="3">
-        <v>3699600</v>
+        <v>3563400</v>
       </c>
       <c r="F9" s="3">
-        <v>3586300</v>
+        <v>3608900</v>
       </c>
       <c r="G9" s="3">
-        <v>4915900</v>
+        <v>3498300</v>
       </c>
       <c r="H9" s="3">
-        <v>3962300</v>
+        <v>4795300</v>
       </c>
       <c r="I9" s="3">
-        <v>3864600</v>
+        <v>3865100</v>
       </c>
       <c r="J9" s="3">
+        <v>3769800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3909700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4552200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10886600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3660500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3531600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3982200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3319100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9595700</v>
+        <v>8306500</v>
       </c>
       <c r="E10" s="3">
-        <v>9838100</v>
+        <v>9360200</v>
       </c>
       <c r="F10" s="3">
-        <v>10207200</v>
+        <v>9596800</v>
       </c>
       <c r="G10" s="3">
-        <v>8306200</v>
+        <v>9956800</v>
       </c>
       <c r="H10" s="3">
-        <v>9229500</v>
+        <v>8102400</v>
       </c>
       <c r="I10" s="3">
-        <v>9969100</v>
+        <v>9003100</v>
       </c>
       <c r="J10" s="3">
+        <v>9724600</v>
+      </c>
+      <c r="K10" s="3">
         <v>9952300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9031300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29921200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10115500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10046600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8920100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9331500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3146900</v>
+        <v>3200700</v>
       </c>
       <c r="E15" s="3">
-        <v>3138800</v>
+        <v>3069700</v>
       </c>
       <c r="F15" s="3">
-        <v>3080100</v>
+        <v>3061800</v>
       </c>
       <c r="G15" s="3">
-        <v>2874500</v>
+        <v>3004500</v>
       </c>
       <c r="H15" s="3">
-        <v>2691400</v>
+        <v>2804000</v>
       </c>
       <c r="I15" s="3">
-        <v>2650900</v>
+        <v>2625400</v>
       </c>
       <c r="J15" s="3">
+        <v>2585900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2614900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3370400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7753800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2585700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2525000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2560600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2456000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12279700</v>
+        <v>12671300</v>
       </c>
       <c r="E17" s="3">
-        <v>11934700</v>
+        <v>11978500</v>
       </c>
       <c r="F17" s="3">
-        <v>12535000</v>
+        <v>11641900</v>
       </c>
       <c r="G17" s="3">
-        <v>12740900</v>
+        <v>12227500</v>
       </c>
       <c r="H17" s="3">
-        <v>12301800</v>
+        <v>12428300</v>
       </c>
       <c r="I17" s="3">
-        <v>12273600</v>
+        <v>12000000</v>
       </c>
       <c r="J17" s="3">
+        <v>11972500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12673600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13492000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36854500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12262100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12419700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12680900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11401400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>968900</v>
+        <v>332100</v>
       </c>
       <c r="E18" s="3">
-        <v>1603100</v>
+        <v>945100</v>
       </c>
       <c r="F18" s="3">
-        <v>1258500</v>
+        <v>1563800</v>
       </c>
       <c r="G18" s="3">
-        <v>481200</v>
+        <v>1227600</v>
       </c>
       <c r="H18" s="3">
-        <v>890000</v>
+        <v>469400</v>
       </c>
       <c r="I18" s="3">
-        <v>1560200</v>
+        <v>868200</v>
       </c>
       <c r="J18" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1188400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>91600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3953300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1513900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1158500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>221300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1249200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-77300</v>
+        <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>-90700</v>
+        <v>-75400</v>
       </c>
       <c r="F20" s="3">
-        <v>-113900</v>
+        <v>-88500</v>
       </c>
       <c r="G20" s="3">
-        <v>-54800</v>
+        <v>-111100</v>
       </c>
       <c r="H20" s="3">
-        <v>116800</v>
+        <v>-53500</v>
       </c>
       <c r="I20" s="3">
-        <v>-47500</v>
+        <v>113900</v>
       </c>
       <c r="J20" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-95700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-278300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-96000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-97500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-108300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,8 +1331,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1308,96 +1349,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>891600</v>
+        <v>322200</v>
       </c>
       <c r="E23" s="3">
-        <v>1512400</v>
+        <v>869700</v>
       </c>
       <c r="F23" s="3">
+        <v>1475300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1116500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>416000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>982100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1475600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1092700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3675100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1417900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="P23" s="3">
+        <v>113000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1144500</v>
       </c>
-      <c r="G23" s="3">
-        <v>426400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1006800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1512700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1092700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>33200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3675100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1417900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1061000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>113000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1144500</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237700</v>
+        <v>24100</v>
       </c>
       <c r="E24" s="3">
-        <v>360700</v>
+        <v>231900</v>
       </c>
       <c r="F24" s="3">
-        <v>283900</v>
+        <v>351900</v>
       </c>
       <c r="G24" s="3">
-        <v>109800</v>
+        <v>277000</v>
       </c>
       <c r="H24" s="3">
-        <v>217700</v>
+        <v>107100</v>
       </c>
       <c r="I24" s="3">
-        <v>379100</v>
+        <v>212300</v>
       </c>
       <c r="J24" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K24" s="3">
         <v>270600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>911100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>343400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>263600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>288000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>653800</v>
+        <v>298100</v>
       </c>
       <c r="E26" s="3">
-        <v>1151700</v>
+        <v>637800</v>
       </c>
       <c r="F26" s="3">
-        <v>860600</v>
+        <v>1123500</v>
       </c>
       <c r="G26" s="3">
-        <v>316700</v>
+        <v>839500</v>
       </c>
       <c r="H26" s="3">
-        <v>789100</v>
+        <v>308900</v>
       </c>
       <c r="I26" s="3">
-        <v>1133600</v>
+        <v>769800</v>
       </c>
       <c r="J26" s="3">
+        <v>1105800</v>
+      </c>
+      <c r="K26" s="3">
         <v>822100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2764000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1074500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>797400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>856600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>642800</v>
+        <v>297800</v>
       </c>
       <c r="E27" s="3">
-        <v>1141100</v>
+        <v>627000</v>
       </c>
       <c r="F27" s="3">
-        <v>854600</v>
+        <v>1113100</v>
       </c>
       <c r="G27" s="3">
-        <v>312200</v>
+        <v>833600</v>
       </c>
       <c r="H27" s="3">
-        <v>784000</v>
+        <v>304600</v>
       </c>
       <c r="I27" s="3">
-        <v>1129500</v>
+        <v>764700</v>
       </c>
       <c r="J27" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="K27" s="3">
         <v>817500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2749700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1069100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>794100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>77300</v>
+        <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>90700</v>
+        <v>75400</v>
       </c>
       <c r="F32" s="3">
-        <v>113900</v>
+        <v>88500</v>
       </c>
       <c r="G32" s="3">
-        <v>54800</v>
+        <v>111100</v>
       </c>
       <c r="H32" s="3">
-        <v>-116800</v>
+        <v>53500</v>
       </c>
       <c r="I32" s="3">
-        <v>47500</v>
+        <v>-113900</v>
       </c>
       <c r="J32" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K32" s="3">
         <v>95700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>278300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>96000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>97500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>108300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>642800</v>
+        <v>297800</v>
       </c>
       <c r="E33" s="3">
-        <v>1141100</v>
+        <v>627000</v>
       </c>
       <c r="F33" s="3">
-        <v>854600</v>
+        <v>1113100</v>
       </c>
       <c r="G33" s="3">
-        <v>312200</v>
+        <v>833600</v>
       </c>
       <c r="H33" s="3">
-        <v>784000</v>
+        <v>304600</v>
       </c>
       <c r="I33" s="3">
-        <v>1129500</v>
+        <v>764700</v>
       </c>
       <c r="J33" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="K33" s="3">
         <v>817500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2749700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1069100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>794100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>642800</v>
+        <v>297800</v>
       </c>
       <c r="E35" s="3">
-        <v>1141100</v>
+        <v>627000</v>
       </c>
       <c r="F35" s="3">
-        <v>854600</v>
+        <v>1113100</v>
       </c>
       <c r="G35" s="3">
-        <v>312200</v>
+        <v>833600</v>
       </c>
       <c r="H35" s="3">
-        <v>784000</v>
+        <v>304600</v>
       </c>
       <c r="I35" s="3">
-        <v>1129500</v>
+        <v>764700</v>
       </c>
       <c r="J35" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="K35" s="3">
         <v>817500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2749700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1069100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>794100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2342000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2143200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2120500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2284600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2090600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2068500</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>2636200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>2785500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>3220800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>937400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1225700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>651400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>623100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>914400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1195700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>635400</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>704500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>1020800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>843600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4690400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3023700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4594500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>3306600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4575300</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2949500</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4481800</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>3382100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>4291400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>3128900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>507300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>693300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>549700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>403100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>494900</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>676300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>536200</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>611900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>536400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>742600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3402900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3388900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3057300</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>3109800</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3319400</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3305700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2982300</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>3284000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>3510600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>2845300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>11880000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>10474800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10973400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>10242600</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>11588500</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10217800</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10704100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>10618700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>12144700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>10781300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5671800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5581800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5351100</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>5689400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5532600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5444900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5219800</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>5473400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>5434800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>5251000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>76525200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>68072500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>67991600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>74285600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>74647800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>66402500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>66323500</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>71142300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>70580800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>68360400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6280300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6325000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6062900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>6476200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6126200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6169900</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5914100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>6279400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>6039100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>5986900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1651900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4728000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4647700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1716500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1611400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4612000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4533700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>4614100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>4566100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>4521900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102035900</v>
+        <v>98410200</v>
       </c>
       <c r="E54" s="3">
-        <v>102009100</v>
+        <v>99532700</v>
       </c>
       <c r="F54" s="3">
-        <v>101737800</v>
+        <v>99506500</v>
       </c>
       <c r="G54" s="3">
-        <v>95182000</v>
+        <v>99241900</v>
       </c>
       <c r="H54" s="3">
-        <v>96073300</v>
+        <v>92846900</v>
       </c>
       <c r="I54" s="3">
-        <v>95026700</v>
+        <v>93716400</v>
       </c>
       <c r="J54" s="3">
+        <v>92695400</v>
+      </c>
+      <c r="K54" s="3">
         <v>94103700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98127800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98628800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98765500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97282300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>94901500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>94162600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>24882600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21720600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>24672000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>21152400</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>24272100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>21187700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>24066700</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>32355800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>35639500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>31073400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>7125400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7285500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5023100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>8193300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6950600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7106700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4899900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>8274600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>12486200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>14995000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>7381600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8143800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>8423600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>7696300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7200500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7944000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8216900</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>242900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>312800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>343100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>39389600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>37149800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>38118600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>37042000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>38423200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>36238400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>37183500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>40873300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>48438500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>46411500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8765400</v>
       </c>
       <c r="E61" s="3">
-        <v>10040700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9794400</v>
       </c>
       <c r="G61" s="3">
-        <v>6451900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>6293600</v>
       </c>
       <c r="I61" s="3">
-        <v>6924100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>6754200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7216000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1343300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1370000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2591100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2209000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1840000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>2911400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2527500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2154800</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1794800</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>1553400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>1330800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>1113600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51371600</v>
+        <v>49072900</v>
       </c>
       <c r="E66" s="3">
-        <v>52396200</v>
+        <v>50111300</v>
       </c>
       <c r="F66" s="3">
-        <v>51628000</v>
+        <v>51110700</v>
       </c>
       <c r="G66" s="3">
-        <v>45958500</v>
+        <v>50361400</v>
       </c>
       <c r="H66" s="3">
-        <v>47118000</v>
+        <v>44831000</v>
       </c>
       <c r="I66" s="3">
-        <v>47010400</v>
+        <v>45962000</v>
       </c>
       <c r="J66" s="3">
+        <v>45857100</v>
+      </c>
+      <c r="K66" s="3">
         <v>45983200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49765900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50103100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51265300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49549600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49036200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48222100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>36560600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>36173900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>34979600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>36593500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>35663600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35286400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>34121400</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>34886700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>34000900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>32623000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50664400</v>
+        <v>49337300</v>
       </c>
       <c r="E76" s="3">
-        <v>49612900</v>
+        <v>49421400</v>
       </c>
       <c r="F76" s="3">
-        <v>50109800</v>
+        <v>48395800</v>
       </c>
       <c r="G76" s="3">
-        <v>49223500</v>
+        <v>48880500</v>
       </c>
       <c r="H76" s="3">
-        <v>48955400</v>
+        <v>48015900</v>
       </c>
       <c r="I76" s="3">
-        <v>48016300</v>
+        <v>47754400</v>
       </c>
       <c r="J76" s="3">
+        <v>46838300</v>
+      </c>
+      <c r="K76" s="3">
         <v>48120500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48361900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48525800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47500300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47732700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45865300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45940500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>642800</v>
+        <v>297800</v>
       </c>
       <c r="E81" s="3">
-        <v>1141100</v>
+        <v>627000</v>
       </c>
       <c r="F81" s="3">
-        <v>854600</v>
+        <v>1113100</v>
       </c>
       <c r="G81" s="3">
-        <v>312200</v>
+        <v>833600</v>
       </c>
       <c r="H81" s="3">
-        <v>784000</v>
+        <v>304600</v>
       </c>
       <c r="I81" s="3">
-        <v>1129500</v>
+        <v>764700</v>
       </c>
       <c r="J81" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="K81" s="3">
         <v>817500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2749700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1069100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>794100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3934,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4128,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4366,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4452,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>CHA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,228 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13003400</v>
+        <v>13766800</v>
       </c>
       <c r="E8" s="3">
-        <v>12923600</v>
+        <v>13493000</v>
       </c>
       <c r="F8" s="3">
-        <v>13205600</v>
+        <v>13410200</v>
       </c>
       <c r="G8" s="3">
-        <v>13455100</v>
+        <v>13702900</v>
       </c>
       <c r="H8" s="3">
-        <v>12897700</v>
+        <v>13961700</v>
       </c>
       <c r="I8" s="3">
-        <v>12868200</v>
+        <v>13383400</v>
       </c>
       <c r="J8" s="3">
+        <v>13352700</v>
+      </c>
+      <c r="K8" s="3">
         <v>13494400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13862000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13583500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40807900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13776000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13578200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12902300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12650700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4696900</v>
+        <v>3959300</v>
       </c>
       <c r="E9" s="3">
-        <v>3563400</v>
+        <v>4873800</v>
       </c>
       <c r="F9" s="3">
-        <v>3608900</v>
+        <v>3697600</v>
       </c>
       <c r="G9" s="3">
-        <v>3498300</v>
+        <v>3744800</v>
       </c>
       <c r="H9" s="3">
-        <v>4795300</v>
+        <v>3630000</v>
       </c>
       <c r="I9" s="3">
-        <v>3865100</v>
+        <v>4975900</v>
       </c>
       <c r="J9" s="3">
+        <v>4010700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3769800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3909700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4552200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10886600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3660500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3531600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3982200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3319100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8306500</v>
+        <v>9807500</v>
       </c>
       <c r="E10" s="3">
-        <v>9360200</v>
+        <v>8619300</v>
       </c>
       <c r="F10" s="3">
-        <v>9596800</v>
+        <v>9712700</v>
       </c>
       <c r="G10" s="3">
-        <v>9956800</v>
+        <v>9958100</v>
       </c>
       <c r="H10" s="3">
-        <v>8102400</v>
+        <v>10331700</v>
       </c>
       <c r="I10" s="3">
-        <v>9003100</v>
+        <v>8407500</v>
       </c>
       <c r="J10" s="3">
+        <v>9342100</v>
+      </c>
+      <c r="K10" s="3">
         <v>9724600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9952300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9031300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29921200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10115500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10046600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8920100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9331500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,55 +1052,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3200700</v>
+        <v>3188100</v>
       </c>
       <c r="E15" s="3">
-        <v>3069700</v>
+        <v>3321300</v>
       </c>
       <c r="F15" s="3">
-        <v>3061800</v>
+        <v>3185300</v>
       </c>
       <c r="G15" s="3">
-        <v>3004500</v>
+        <v>3177100</v>
       </c>
       <c r="H15" s="3">
-        <v>2804000</v>
+        <v>3117700</v>
       </c>
       <c r="I15" s="3">
-        <v>2625400</v>
+        <v>2909500</v>
       </c>
       <c r="J15" s="3">
+        <v>2724200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2585900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2614900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3370400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7753800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2585700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2525000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2560600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2456000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12671300</v>
+        <v>12574600</v>
       </c>
       <c r="E17" s="3">
-        <v>11978500</v>
+        <v>13148400</v>
       </c>
       <c r="F17" s="3">
-        <v>11641900</v>
+        <v>12429500</v>
       </c>
       <c r="G17" s="3">
-        <v>12227500</v>
+        <v>12080200</v>
       </c>
       <c r="H17" s="3">
-        <v>12428300</v>
+        <v>12687900</v>
       </c>
       <c r="I17" s="3">
-        <v>12000000</v>
+        <v>12896300</v>
       </c>
       <c r="J17" s="3">
+        <v>12451900</v>
+      </c>
+      <c r="K17" s="3">
         <v>11972500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12673600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13492000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36854500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12262100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12419700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12680900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11401400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>332100</v>
+        <v>1192200</v>
       </c>
       <c r="E18" s="3">
-        <v>945100</v>
+        <v>344600</v>
       </c>
       <c r="F18" s="3">
-        <v>1563800</v>
+        <v>980700</v>
       </c>
       <c r="G18" s="3">
-        <v>1227600</v>
+        <v>1622700</v>
       </c>
       <c r="H18" s="3">
-        <v>469400</v>
+        <v>1273800</v>
       </c>
       <c r="I18" s="3">
-        <v>868200</v>
+        <v>487100</v>
       </c>
       <c r="J18" s="3">
+        <v>900900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1521900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1188400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>91600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3953300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1513900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1158500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>221300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1249200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1241,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9900</v>
+        <v>-67200</v>
       </c>
       <c r="E20" s="3">
-        <v>-75400</v>
+        <v>-10300</v>
       </c>
       <c r="F20" s="3">
-        <v>-88500</v>
+        <v>-78300</v>
       </c>
       <c r="G20" s="3">
-        <v>-111100</v>
+        <v>-91800</v>
       </c>
       <c r="H20" s="3">
-        <v>-53500</v>
+        <v>-115300</v>
       </c>
       <c r="I20" s="3">
-        <v>113900</v>
+        <v>-55500</v>
       </c>
       <c r="J20" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-46300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-95700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-58300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-278300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-96000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-97500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-108300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,8 +1371,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1352,102 +1389,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>322200</v>
+        <v>1125000</v>
       </c>
       <c r="E23" s="3">
-        <v>869700</v>
+        <v>334300</v>
       </c>
       <c r="F23" s="3">
-        <v>1475300</v>
+        <v>902500</v>
       </c>
       <c r="G23" s="3">
-        <v>1116500</v>
+        <v>1530900</v>
       </c>
       <c r="H23" s="3">
-        <v>416000</v>
+        <v>1158500</v>
       </c>
       <c r="I23" s="3">
-        <v>982100</v>
+        <v>431600</v>
       </c>
       <c r="J23" s="3">
+        <v>1019100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1475600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1092700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3675100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1417900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1061000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1144500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24100</v>
+        <v>270000</v>
       </c>
       <c r="E24" s="3">
-        <v>231900</v>
+        <v>25000</v>
       </c>
       <c r="F24" s="3">
-        <v>351900</v>
+        <v>240600</v>
       </c>
       <c r="G24" s="3">
-        <v>277000</v>
+        <v>365100</v>
       </c>
       <c r="H24" s="3">
-        <v>107100</v>
+        <v>287400</v>
       </c>
       <c r="I24" s="3">
-        <v>212300</v>
+        <v>111100</v>
       </c>
       <c r="J24" s="3">
+        <v>220300</v>
+      </c>
+      <c r="K24" s="3">
         <v>369800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>270600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>911100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>343400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>263600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>288000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>298100</v>
+        <v>855000</v>
       </c>
       <c r="E26" s="3">
-        <v>637800</v>
+        <v>309300</v>
       </c>
       <c r="F26" s="3">
-        <v>1123500</v>
+        <v>661800</v>
       </c>
       <c r="G26" s="3">
-        <v>839500</v>
+        <v>1165800</v>
       </c>
       <c r="H26" s="3">
-        <v>308900</v>
+        <v>871100</v>
       </c>
       <c r="I26" s="3">
-        <v>769800</v>
+        <v>320500</v>
       </c>
       <c r="J26" s="3">
+        <v>798800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1105800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>822100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2764000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1074500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>797400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>856600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>297800</v>
+        <v>845500</v>
       </c>
       <c r="E27" s="3">
-        <v>627000</v>
+        <v>309000</v>
       </c>
       <c r="F27" s="3">
-        <v>1113100</v>
+        <v>650600</v>
       </c>
       <c r="G27" s="3">
-        <v>833600</v>
+        <v>1155000</v>
       </c>
       <c r="H27" s="3">
-        <v>304600</v>
+        <v>865000</v>
       </c>
       <c r="I27" s="3">
-        <v>764700</v>
+        <v>316000</v>
       </c>
       <c r="J27" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1101800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>817500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2749700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1069100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>794100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9900</v>
+        <v>67200</v>
       </c>
       <c r="E32" s="3">
-        <v>75400</v>
+        <v>10300</v>
       </c>
       <c r="F32" s="3">
-        <v>88500</v>
+        <v>78300</v>
       </c>
       <c r="G32" s="3">
-        <v>111100</v>
+        <v>91800</v>
       </c>
       <c r="H32" s="3">
-        <v>53500</v>
+        <v>115300</v>
       </c>
       <c r="I32" s="3">
-        <v>-113900</v>
+        <v>55500</v>
       </c>
       <c r="J32" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="K32" s="3">
         <v>46300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>95700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>58300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>278300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>96000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>97500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>108300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>297800</v>
+        <v>845500</v>
       </c>
       <c r="E33" s="3">
-        <v>627000</v>
+        <v>309000</v>
       </c>
       <c r="F33" s="3">
-        <v>1113100</v>
+        <v>650600</v>
       </c>
       <c r="G33" s="3">
-        <v>833600</v>
+        <v>1155000</v>
       </c>
       <c r="H33" s="3">
-        <v>304600</v>
+        <v>865000</v>
       </c>
       <c r="I33" s="3">
-        <v>764700</v>
+        <v>316000</v>
       </c>
       <c r="J33" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1101800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>817500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2749700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1069100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>794100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>297800</v>
+        <v>845500</v>
       </c>
       <c r="E35" s="3">
-        <v>627000</v>
+        <v>309000</v>
       </c>
       <c r="F35" s="3">
-        <v>1113100</v>
+        <v>650600</v>
       </c>
       <c r="G35" s="3">
-        <v>833600</v>
+        <v>1155000</v>
       </c>
       <c r="H35" s="3">
-        <v>304600</v>
+        <v>865000</v>
       </c>
       <c r="I35" s="3">
-        <v>764700</v>
+        <v>316000</v>
       </c>
       <c r="J35" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1101800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>817500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2749700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1069100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>794100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2136,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2800000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2284600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2090600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2905500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2370600</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2169300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>2068500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>2636200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>2785500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3220800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>623100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>914400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1195700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>646600</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>948800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1240700</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>635400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>704500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>1020800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>843600</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>3306600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4575300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2949500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3431100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4747600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3060600</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>4481800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>3382100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>4291400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3128900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>403100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>494900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>676300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>418300</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>513500</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>701800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>536200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>611900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>536400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>742600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>3109800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3319400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3305700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3226900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3444400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3430200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2982300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>3284000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>3510600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2845300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>10242600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>11588500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10217800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10628200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>12024900</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10602500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>10704100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>10618700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>12144700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10781300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>5689400</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5532600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5444900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5903600</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5740900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5649900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>5219800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>5473400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>5434800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5251000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>74285600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>74647800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>66402500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>77082700</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>77458600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>68902800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>66323500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>71142300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>70580800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>68360400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>6476200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6126200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6169900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6720100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6356900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6402200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>5914100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>6279400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>6039100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5986900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1716500</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1611400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4612000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1781100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4785600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>4533700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>4614100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>4566100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4521900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>98410200</v>
+        <v>104035800</v>
       </c>
       <c r="E54" s="3">
-        <v>99532700</v>
+        <v>102115700</v>
       </c>
       <c r="F54" s="3">
-        <v>99506500</v>
+        <v>103280500</v>
       </c>
       <c r="G54" s="3">
-        <v>99241900</v>
+        <v>103253300</v>
       </c>
       <c r="H54" s="3">
-        <v>92846900</v>
+        <v>102978700</v>
       </c>
       <c r="I54" s="3">
-        <v>93716400</v>
+        <v>96343000</v>
       </c>
       <c r="J54" s="3">
+        <v>97245100</v>
+      </c>
+      <c r="K54" s="3">
         <v>92695400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94103700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98127800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98628800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98765500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97282300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>94901500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94162600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2876,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>21152400</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>24272100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>21187700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21948900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>25186100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>21985500</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>24066700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>32355800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>35639500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>31073400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>8193300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6950600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7106700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8501800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7212300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7374300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>4899900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>8274600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>12486200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>14995000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>7696300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>7200500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7944000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7986100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7471600</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8243100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>8216900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>242900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>312800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>343100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>37042000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>38423200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>36238400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>38436700</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>39870000</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>37603000</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>37183500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>40873300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>48438500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>46411500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8765400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9095500</v>
       </c>
       <c r="F61" s="3">
-        <v>9794400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>10163200</v>
       </c>
       <c r="H61" s="3">
-        <v>6293600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>6530600</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6754200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7216000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1343300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1370000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2911400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2527500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2154800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3021100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2622700</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2236000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>1794800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>1553400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>1330800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1113600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49072900</v>
+        <v>51628400</v>
       </c>
       <c r="E66" s="3">
-        <v>50111300</v>
+        <v>50920700</v>
       </c>
       <c r="F66" s="3">
-        <v>51110700</v>
+        <v>51998100</v>
       </c>
       <c r="G66" s="3">
-        <v>50361400</v>
+        <v>53035200</v>
       </c>
       <c r="H66" s="3">
-        <v>44831000</v>
+        <v>52257700</v>
       </c>
       <c r="I66" s="3">
-        <v>45962000</v>
+        <v>46519100</v>
       </c>
       <c r="J66" s="3">
+        <v>47692700</v>
+      </c>
+      <c r="K66" s="3">
         <v>45857100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45983200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49765900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50103100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51265300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49549600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49036200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48222100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>36593500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>35663600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>35286400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>37971400</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>37006500</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>36615100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>34121400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>34886700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>34000900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>32623000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49337300</v>
+        <v>52407400</v>
       </c>
       <c r="E76" s="3">
-        <v>49421400</v>
+        <v>51195000</v>
       </c>
       <c r="F76" s="3">
-        <v>48395800</v>
+        <v>51282300</v>
       </c>
       <c r="G76" s="3">
-        <v>48880500</v>
+        <v>50218100</v>
       </c>
       <c r="H76" s="3">
-        <v>48015900</v>
+        <v>50721000</v>
       </c>
       <c r="I76" s="3">
-        <v>47754400</v>
+        <v>49823900</v>
       </c>
       <c r="J76" s="3">
+        <v>49552500</v>
+      </c>
+      <c r="K76" s="3">
         <v>46838300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48120500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48361900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48525800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47500300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47732700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45865300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45940500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>297800</v>
+        <v>845500</v>
       </c>
       <c r="E81" s="3">
-        <v>627000</v>
+        <v>309000</v>
       </c>
       <c r="F81" s="3">
-        <v>1113100</v>
+        <v>650600</v>
       </c>
       <c r="G81" s="3">
-        <v>833600</v>
+        <v>1155000</v>
       </c>
       <c r="H81" s="3">
-        <v>304600</v>
+        <v>865000</v>
       </c>
       <c r="I81" s="3">
-        <v>764700</v>
+        <v>316000</v>
       </c>
       <c r="J81" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1101800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>817500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2749700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1069100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>794100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4021,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4069,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4319,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4369,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4391,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4539,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4589,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4809,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4859,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4909,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4957,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>CHA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,252 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13766800</v>
+        <v>15031100</v>
       </c>
       <c r="E8" s="3">
-        <v>13493000</v>
+        <v>15061400</v>
       </c>
       <c r="F8" s="3">
-        <v>13410200</v>
+        <v>14419900</v>
       </c>
       <c r="G8" s="3">
-        <v>13702900</v>
+        <v>14133200</v>
       </c>
       <c r="H8" s="3">
-        <v>13961700</v>
+        <v>14046500</v>
       </c>
       <c r="I8" s="3">
+        <v>14353000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14624100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13383400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13352700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13494400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13862000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13583500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>40807900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13776000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13578200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12902300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12650700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3959300</v>
+        <v>4282000</v>
       </c>
       <c r="E9" s="3">
-        <v>4873800</v>
+        <v>4629900</v>
       </c>
       <c r="F9" s="3">
-        <v>3697600</v>
+        <v>4147100</v>
       </c>
       <c r="G9" s="3">
-        <v>3744800</v>
+        <v>5105000</v>
       </c>
       <c r="H9" s="3">
-        <v>3630000</v>
+        <v>3873000</v>
       </c>
       <c r="I9" s="3">
+        <v>3922400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3802200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4975900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4010700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3769800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3909700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4552200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10886600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3660500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3531600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3982200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3319100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9807500</v>
+        <v>10749100</v>
       </c>
       <c r="E10" s="3">
-        <v>8619300</v>
+        <v>10431500</v>
       </c>
       <c r="F10" s="3">
-        <v>9712700</v>
+        <v>10272800</v>
       </c>
       <c r="G10" s="3">
-        <v>9958100</v>
+        <v>9028200</v>
       </c>
       <c r="H10" s="3">
-        <v>10331700</v>
+        <v>10173500</v>
       </c>
       <c r="I10" s="3">
+        <v>10430600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10821800</v>
+      </c>
+      <c r="K10" s="3">
         <v>8407500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9342100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9724600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9952300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9031300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29921200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10115500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10046600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8920100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>9331500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +929,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +981,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1037,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,58 +1093,70 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3188100</v>
+        <v>3407200</v>
       </c>
       <c r="E15" s="3">
-        <v>3321300</v>
+        <v>3380700</v>
       </c>
       <c r="F15" s="3">
-        <v>3185300</v>
+        <v>3339300</v>
       </c>
       <c r="G15" s="3">
-        <v>3177100</v>
+        <v>3478800</v>
       </c>
       <c r="H15" s="3">
-        <v>3117700</v>
+        <v>3336400</v>
       </c>
       <c r="I15" s="3">
+        <v>3327800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3265600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2909500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2724200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2585900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2614900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3370400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7753800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2585700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2525000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2560600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2456000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1172,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12574600</v>
+        <v>14018300</v>
       </c>
       <c r="E17" s="3">
-        <v>13148400</v>
+        <v>13423200</v>
       </c>
       <c r="F17" s="3">
-        <v>12429500</v>
+        <v>13171200</v>
       </c>
       <c r="G17" s="3">
-        <v>12080200</v>
+        <v>13772200</v>
       </c>
       <c r="H17" s="3">
-        <v>12687900</v>
+        <v>13019200</v>
       </c>
       <c r="I17" s="3">
+        <v>12653300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13289800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12896300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12451900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11972500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12673600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13492000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>36854500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12262100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12419700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12680900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11401400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1192200</v>
+        <v>1012800</v>
       </c>
       <c r="E18" s="3">
-        <v>344600</v>
+        <v>1638200</v>
       </c>
       <c r="F18" s="3">
-        <v>980700</v>
+        <v>1248800</v>
       </c>
       <c r="G18" s="3">
-        <v>1622700</v>
+        <v>361000</v>
       </c>
       <c r="H18" s="3">
-        <v>1273800</v>
+        <v>1027300</v>
       </c>
       <c r="I18" s="3">
+        <v>1699600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1334200</v>
+      </c>
+      <c r="K18" s="3">
         <v>487100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>900900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1521900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1188400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>91600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3953300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1513900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1158500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>221300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1249200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,58 +1306,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-67200</v>
+        <v>-65700</v>
       </c>
       <c r="E20" s="3">
-        <v>-10300</v>
+        <v>-40900</v>
       </c>
       <c r="F20" s="3">
-        <v>-78300</v>
+        <v>-70400</v>
       </c>
       <c r="G20" s="3">
-        <v>-91800</v>
+        <v>-10800</v>
       </c>
       <c r="H20" s="3">
-        <v>-115300</v>
+        <v>-82000</v>
       </c>
       <c r="I20" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-55500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>118200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-46300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-95700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-58300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-278300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-96000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-97500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-108300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,8 +1414,14 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1374,11 +1452,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1392,108 +1470,126 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1125000</v>
+        <v>947100</v>
       </c>
       <c r="E23" s="3">
-        <v>334300</v>
+        <v>1597300</v>
       </c>
       <c r="F23" s="3">
-        <v>902500</v>
+        <v>1178300</v>
       </c>
       <c r="G23" s="3">
-        <v>1530900</v>
+        <v>350200</v>
       </c>
       <c r="H23" s="3">
-        <v>1158500</v>
+        <v>945300</v>
       </c>
       <c r="I23" s="3">
+        <v>1603500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1213500</v>
+      </c>
+      <c r="K23" s="3">
         <v>431600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1019100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1475600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1092700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>33200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3675100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1417900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1061000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>113000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1144500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>270000</v>
+        <v>213700</v>
       </c>
       <c r="E24" s="3">
-        <v>25000</v>
+        <v>352300</v>
       </c>
       <c r="F24" s="3">
-        <v>240600</v>
+        <v>282800</v>
       </c>
       <c r="G24" s="3">
-        <v>365100</v>
+        <v>26200</v>
       </c>
       <c r="H24" s="3">
-        <v>287400</v>
+        <v>252100</v>
       </c>
       <c r="I24" s="3">
+        <v>382400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>301000</v>
+      </c>
+      <c r="K24" s="3">
         <v>111100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>220300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>369800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>270600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>911100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>343400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>263600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>38700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>288000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1638,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>855000</v>
+        <v>733400</v>
       </c>
       <c r="E26" s="3">
-        <v>309300</v>
+        <v>1245000</v>
       </c>
       <c r="F26" s="3">
-        <v>661800</v>
+        <v>895500</v>
       </c>
       <c r="G26" s="3">
-        <v>1165800</v>
+        <v>324000</v>
       </c>
       <c r="H26" s="3">
-        <v>871100</v>
+        <v>693200</v>
       </c>
       <c r="I26" s="3">
+        <v>1221100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>912400</v>
+      </c>
+      <c r="K26" s="3">
         <v>320500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>798800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1105800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>822100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2764000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1074500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>797400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>74300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>856600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>845500</v>
+        <v>723600</v>
       </c>
       <c r="E27" s="3">
-        <v>309000</v>
+        <v>1236300</v>
       </c>
       <c r="F27" s="3">
-        <v>650600</v>
+        <v>885600</v>
       </c>
       <c r="G27" s="3">
-        <v>1155000</v>
+        <v>323700</v>
       </c>
       <c r="H27" s="3">
-        <v>865000</v>
+        <v>681500</v>
       </c>
       <c r="I27" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K27" s="3">
         <v>316000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>793500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1101800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>817500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>17100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2749700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1069100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>794100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>69100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1806,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1862,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1918,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1974,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>67200</v>
+        <v>65700</v>
       </c>
       <c r="E32" s="3">
-        <v>10300</v>
+        <v>40900</v>
       </c>
       <c r="F32" s="3">
-        <v>78300</v>
+        <v>70400</v>
       </c>
       <c r="G32" s="3">
-        <v>91800</v>
+        <v>10800</v>
       </c>
       <c r="H32" s="3">
-        <v>115300</v>
+        <v>82000</v>
       </c>
       <c r="I32" s="3">
+        <v>96100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K32" s="3">
         <v>55500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-118200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>46300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>95700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>58300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>278300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>96000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>97500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>108300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>104700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>845500</v>
+        <v>723600</v>
       </c>
       <c r="E33" s="3">
-        <v>309000</v>
+        <v>1236300</v>
       </c>
       <c r="F33" s="3">
-        <v>650600</v>
+        <v>885600</v>
       </c>
       <c r="G33" s="3">
-        <v>1155000</v>
+        <v>323700</v>
       </c>
       <c r="H33" s="3">
-        <v>865000</v>
+        <v>681500</v>
       </c>
       <c r="I33" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K33" s="3">
         <v>316000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>793500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1101800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>817500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2749700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1069100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>794100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>69100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2142,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>845500</v>
+        <v>723600</v>
       </c>
       <c r="E35" s="3">
-        <v>309000</v>
+        <v>1236300</v>
       </c>
       <c r="F35" s="3">
-        <v>650600</v>
+        <v>885600</v>
       </c>
       <c r="G35" s="3">
-        <v>1155000</v>
+        <v>323700</v>
       </c>
       <c r="H35" s="3">
-        <v>865000</v>
+        <v>681500</v>
       </c>
       <c r="I35" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K35" s="3">
         <v>316000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>793500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1101800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>817500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2749700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1069100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>794100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>69100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2285,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,8 +2307,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2146,49 +2318,55 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>2905500</v>
+        <v>2897700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>2370600</v>
+        <v>3043300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
+        <v>2483100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>2169300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>2068500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>2636200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2785500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>3220800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2196,49 +2374,55 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>646600</v>
+        <v>832700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>948800</v>
+        <v>677200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
+        <v>993800</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1240700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>635400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>704500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1020800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>843600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2246,49 +2430,55 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>3431100</v>
+        <v>5220900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>4747600</v>
+        <v>3593800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
+        <v>4972800</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>3060600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>4481800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>3382100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4291400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>3128900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2296,49 +2486,55 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>418300</v>
+        <v>465600</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>513500</v>
+        <v>438100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
+        <v>537900</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>701800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>536200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>611900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>536400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>742600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2346,49 +2542,55 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>3226900</v>
+        <v>3277900</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>3444400</v>
+        <v>3380000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
+        <v>3607800</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>3430200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2982300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>3284000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3510600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2845300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2396,49 +2598,55 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>10628200</v>
+        <v>12694900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>12024900</v>
+        <v>11132400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
+        <v>12595400</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>10602500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>10704100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>10618700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>12144700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>10781300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2446,49 +2654,55 @@
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>5903600</v>
+        <v>6204200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>5740900</v>
+        <v>6183700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>6013300</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>5649900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>5219800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>5473400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5434800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>5251000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2496,49 +2710,55 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>77082700</v>
+        <v>80820100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>77458600</v>
+        <v>80739700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
+        <v>81133400</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>68902800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>66323500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>71142300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>70580800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>68360400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2546,49 +2766,55 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>6720100</v>
+        <v>6975600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>6356900</v>
+        <v>7038900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3">
+        <v>6658400</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>6402200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>5914100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>6279400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>6039100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>5986900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2863,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2919,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2696,49 +2934,55 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>1781100</v>
+        <v>1919900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>1672000</v>
+        <v>1865600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>1751400</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>4785600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>4533700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>4614100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4566100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>4521900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +3031,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104035800</v>
+        <v>109819200</v>
       </c>
       <c r="E54" s="3">
-        <v>102115700</v>
+        <v>108614700</v>
       </c>
       <c r="F54" s="3">
-        <v>103280500</v>
+        <v>108971500</v>
       </c>
       <c r="G54" s="3">
-        <v>103253300</v>
+        <v>106960300</v>
       </c>
       <c r="H54" s="3">
-        <v>102978700</v>
+        <v>108180300</v>
       </c>
       <c r="I54" s="3">
+        <v>108151800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>107864200</v>
+      </c>
+      <c r="K54" s="3">
         <v>96343000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>97245100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>92695400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>94103700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>98127800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>98628800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>98765500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>97282300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>94901500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>94162600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +3113,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,8 +3135,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2886,49 +3146,55 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>21948900</v>
+        <v>28875400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>25186100</v>
+        <v>22990200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
+        <v>26381000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>21985500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>24066700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>32355800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>35639500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>31073400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2936,49 +3202,55 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>8501800</v>
+        <v>4206300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>7212300</v>
+        <v>8905100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>7554400</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>7374300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>4899900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>8274600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>12486200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>14995000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2986,49 +3258,55 @@
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>7986100</v>
+        <v>7920100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>7471600</v>
+        <v>8364900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>7826100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>8243100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>8216900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>242900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>312800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>343100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3036,49 +3314,55 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>38436700</v>
+        <v>41001800</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>39870000</v>
+        <v>40260200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
+        <v>41761500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>37603000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>37183500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>40873300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>48438500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>46411500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3086,49 +3370,55 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9095500</v>
+        <v>9242200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>10163200</v>
+        <v>9527000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>10645400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6530600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>6754200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7216000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1343300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1370000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3136,49 +3426,55 @@
         <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>3021100</v>
+        <v>3634600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>2622700</v>
+        <v>3164400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3">
+        <v>2747100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>2236000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>1794800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>1553400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1330800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>1113600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3523,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3579,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3635,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51628400</v>
+        <v>54388400</v>
       </c>
       <c r="E66" s="3">
-        <v>50920700</v>
+        <v>54282000</v>
       </c>
       <c r="F66" s="3">
-        <v>51998100</v>
+        <v>54077700</v>
       </c>
       <c r="G66" s="3">
-        <v>53035200</v>
+        <v>53336500</v>
       </c>
       <c r="H66" s="3">
-        <v>52257700</v>
+        <v>54465000</v>
       </c>
       <c r="I66" s="3">
+        <v>55551300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>54736900</v>
+      </c>
+      <c r="K66" s="3">
         <v>46519100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>47692700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>45857100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>45983200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>49765900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>50103100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>51265300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>49549600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>49036200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>48222100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3717,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3769,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3825,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3881,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,8 +3937,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3606,49 +3952,55 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>37971400</v>
+        <v>40468300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>37006500</v>
+        <v>39772800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
+        <v>38762200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>36615100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>34121400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>34886700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34000900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>32623000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +4049,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +4105,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +4161,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52407400</v>
+        <v>55430900</v>
       </c>
       <c r="E76" s="3">
-        <v>51195000</v>
+        <v>54332700</v>
       </c>
       <c r="F76" s="3">
-        <v>51282300</v>
+        <v>54893700</v>
       </c>
       <c r="G76" s="3">
-        <v>50218100</v>
+        <v>53623800</v>
       </c>
       <c r="H76" s="3">
-        <v>50721000</v>
+        <v>53715200</v>
       </c>
       <c r="I76" s="3">
+        <v>52600500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>53127300</v>
+      </c>
+      <c r="K76" s="3">
         <v>49823900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>49552500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>46838300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48120500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48361900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>48525800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>47500300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>47732700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>45865300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>45940500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4273,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>845500</v>
+        <v>723600</v>
       </c>
       <c r="E81" s="3">
-        <v>309000</v>
+        <v>1236300</v>
       </c>
       <c r="F81" s="3">
-        <v>650600</v>
+        <v>885600</v>
       </c>
       <c r="G81" s="3">
-        <v>1155000</v>
+        <v>323700</v>
       </c>
       <c r="H81" s="3">
-        <v>865000</v>
+        <v>681500</v>
       </c>
       <c r="I81" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K81" s="3">
         <v>316000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>793500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1101800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>817500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2749700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1069100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>794100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>69100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>853700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,8 +4416,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4072,8 +4468,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4524,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4580,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4636,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4692,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,8 +4748,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4372,8 +4804,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,8 +4830,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4442,8 +4882,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4938,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,8 +4994,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4592,8 +5050,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +5076,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +5128,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +5184,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5240,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,8 +5296,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4862,8 +5352,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,8 +5408,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4960,6 +5462,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>
